--- a/evaluation/results/hybrid/pca/isolation_forest/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/isolation_forest/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="C2">
-        <v>0.3095238095238095</v>
+        <v>0.5550935550935551</v>
       </c>
       <c r="D2">
-        <v>0.02434456928838951</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.04513888888888889</v>
+        <v>0.713903743315508</v>
       </c>
       <c r="F2">
-        <v>0.02984389348025712</v>
+        <v>0.8618463524854745</v>
       </c>
       <c r="G2">
-        <v>0.0252389486260454</v>
+        <v>0.9700950251537171</v>
       </c>
       <c r="H2">
-        <v>0.4850187265917603</v>
+        <v>0.679494732707711</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>534</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>428</v>
       </c>
       <c r="K2">
-        <v>505</v>
+        <v>106</v>
       </c>
       <c r="L2">
-        <v>521</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4922027290448343</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9456928838951311</v>
+        <v>0.198501872659176</v>
       </c>
       <c r="D2">
-        <v>0.6474358974358975</v>
+        <v>0.33125</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3095238095238095</v>
+        <v>0.5550935550935551</v>
       </c>
       <c r="C3">
-        <v>0.02434456928838951</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.04513888888888889</v>
+        <v>0.713903743315508</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="C4">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="D4">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="E4">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4008632692843219</v>
+        <v>0.7775467775467775</v>
       </c>
       <c r="C5">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="D5">
-        <v>0.3462873931623932</v>
+        <v>0.522576871657754</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.4008632692843219</v>
+        <v>0.7775467775467776</v>
       </c>
       <c r="C6">
-        <v>0.4850187265917603</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="D6">
-        <v>0.3462873931623932</v>
+        <v>0.522576871657754</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>505</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
